--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
@@ -555,10 +555,10 @@
         <v>1.568433</v>
       </c>
       <c r="O2">
-        <v>0.520184760538959</v>
+        <v>0.5597564161496535</v>
       </c>
       <c r="P2">
-        <v>0.5201847605389589</v>
+        <v>0.5597564161496534</v>
       </c>
       <c r="Q2">
         <v>0.02045254059033334</v>
@@ -567,10 +567,10 @@
         <v>0.184072865313</v>
       </c>
       <c r="S2">
-        <v>0.520184760538959</v>
+        <v>0.5597564161496535</v>
       </c>
       <c r="T2">
-        <v>0.5201847605389589</v>
+        <v>0.5597564161496534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4822376666666667</v>
+        <v>0.4111863333333334</v>
       </c>
       <c r="N3">
-        <v>1.446713</v>
+        <v>1.233559</v>
       </c>
       <c r="O3">
-        <v>0.4798152394610411</v>
+        <v>0.4402435838503465</v>
       </c>
       <c r="P3">
-        <v>0.479815239461041</v>
+        <v>0.4402435838503465</v>
       </c>
       <c r="Q3">
-        <v>0.01886529826588889</v>
+        <v>0.01608574642211111</v>
       </c>
       <c r="R3">
-        <v>0.169787684393</v>
+        <v>0.144771717799</v>
       </c>
       <c r="S3">
-        <v>0.4798152394610411</v>
+        <v>0.4402435838503465</v>
       </c>
       <c r="T3">
-        <v>0.479815239461041</v>
+        <v>0.4402435838503465</v>
       </c>
     </row>
   </sheetData>
